--- a/public/data/soil/soil_table_malawi.xlsx
+++ b/public/data/soil/soil_table_malawi.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>847.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.568</v>
+        <v>23.588</v>
       </c>
     </row>
     <row r="3">
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39774.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>139.682</v>
+        <v>154.661</v>
       </c>
     </row>
     <row r="4">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>67450.7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.159</v>
+        <v>193.458</v>
       </c>
     </row>
     <row r="5">
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>256.4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11413.7</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.415</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.812</v>
+        <v>74.821</v>
       </c>
     </row>
     <row r="6">
@@ -1570,25 +1570,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>242.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13266.4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.989</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.969</v>
+        <v>52.854</v>
       </c>
     </row>
     <row r="7">
@@ -1605,25 +1605,25 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8524.2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7611.7</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.837</v>
+        <v>20.71</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>26.103</v>
+        <v>33.059</v>
       </c>
     </row>
     <row r="8">
@@ -1637,28 +1637,28 @@
         <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>8.8</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4076.1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12271.7</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16.412</v>
+        <v>22.738</v>
       </c>
       <c r="J8" t="n">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>43.311</v>
+        <v>34.875</v>
       </c>
     </row>
     <row r="9">
@@ -1675,25 +1675,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1158.7</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>18859.6</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.339</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>29.901</v>
+        <v>36.759</v>
       </c>
     </row>
     <row r="10">
@@ -1710,25 +1710,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>441.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7061</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>27.38</v>
+        <v>29.533</v>
       </c>
     </row>
     <row r="11">
@@ -1745,25 +1745,25 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>208.2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5931.4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.951</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>19.859</v>
+        <v>99.951</v>
       </c>
     </row>
     <row r="12">
@@ -1780,25 +1780,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2736.7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2043.4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.286</v>
+        <v>21.767</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>5.828</v>
+        <v>25.13</v>
       </c>
     </row>
     <row r="13">
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.6</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13766.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>63.611</v>
+        <v>51.553</v>
       </c>
     </row>
     <row r="14">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>609.3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.065</v>
+        <v>11.076</v>
       </c>
     </row>
     <row r="15">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>20029.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.239</v>
+        <v>31.405</v>
       </c>
     </row>
     <row r="16">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.5</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13699.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.379</v>
+        <v>7.788</v>
       </c>
     </row>
     <row r="17">
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>545.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.318</v>
+        <v>15.314</v>
       </c>
     </row>
     <row r="18">
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>37467.8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>101.574</v>
+        <v>92.793</v>
       </c>
     </row>
     <row r="19">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13946.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>29.825</v>
+        <v>35.44</v>
       </c>
     </row>
     <row r="20">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8167.7</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>26.158</v>
+        <v>49.128</v>
       </c>
     </row>
     <row r="21">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10868</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.669</v>
+        <v>33.916</v>
       </c>
     </row>
     <row r="22">
@@ -2133,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1232.8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19782.6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.524</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>57.876</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="23">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7756.4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>33.319</v>
+        <v>16.823</v>
       </c>
     </row>
     <row r="24">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45011.4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>148.126</v>
+        <v>145.268</v>
       </c>
     </row>
     <row r="25">
@@ -2238,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>374.7</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.788</v>
+        <v>34.718</v>
       </c>
     </row>
     <row r="26">
@@ -2270,25 +2270,25 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1574.1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3647.6</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.782</v>
+        <v>21.767</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.153</v>
+        <v>54.471</v>
       </c>
     </row>
     <row r="27">
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>49.1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>15097.3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>83.185</v>
+        <v>58.968</v>
       </c>
     </row>
     <row r="28">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8592</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>55.357</v>
+        <v>33.648</v>
       </c>
     </row>
     <row r="29">
@@ -2375,25 +2375,25 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1430.3</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>363.3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8905.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.716</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>45.97</v>
+        <v>63.55</v>
       </c>
     </row>
     <row r="30">
@@ -2410,25 +2410,25 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>151.8</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6924.7</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.776</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>34.62</v>
+        <v>58.118</v>
       </c>
     </row>
     <row r="31">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9537.8</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>44.226</v>
+        <v>30.445</v>
       </c>
     </row>
     <row r="32">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>612.8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4.336</v>
+        <v>13.175</v>
       </c>
     </row>
     <row r="33">
@@ -2512,28 +2512,28 @@
         <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>2652.9</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>496.1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3993.2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7040.7</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.136</v>
+        <v>0.684</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.674</v>
+        <v>1.273</v>
       </c>
       <c r="K33" t="n">
-        <v>3.98</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="34">
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7493.3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16095.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.218</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>17.425</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="35">
@@ -2582,28 +2582,28 @@
         <v>67</v>
       </c>
       <c r="D35" t="n">
-        <v>280.1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3676.7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>55525.7</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>80.464</v>
+        <v>85.558</v>
       </c>
     </row>
     <row r="36">
@@ -2617,28 +2617,28 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>4697.1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>395.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>11363.6</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>13995.6</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.881</v>
+        <v>13.196</v>
       </c>
       <c r="I36" t="n">
-        <v>0.499</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.85</v>
+        <v>9.763</v>
       </c>
       <c r="K36" t="n">
-        <v>8.893</v>
+        <v>7.537</v>
       </c>
     </row>
     <row r="37">
@@ -2652,28 +2652,28 @@
         <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>1571.4</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3648.2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7808.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>19526.1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.228</v>
+        <v>6.429</v>
       </c>
       <c r="K37" t="n">
-        <v>16.756</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="38">
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2250.1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>27922.1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2705,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.328</v>
+        <v>3.928</v>
       </c>
       <c r="K38" t="n">
-        <v>31.409</v>
+        <v>26.259</v>
       </c>
     </row>
     <row r="39">
@@ -2722,16 +2722,16 @@
         <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1422.8</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>5.609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>378.8</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.581</v>
+        <v>19.615</v>
       </c>
     </row>
     <row r="41">
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5424</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>22.389</v>
+        <v>23.589</v>
       </c>
     </row>
     <row r="42">
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>173.7</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>17911.8</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>67.811</v>
+        <v>69.874</v>
       </c>
     </row>
     <row r="43">
@@ -2868,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>462.3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>11443.3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.525</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.463</v>
+        <v>40.754</v>
       </c>
     </row>
     <row r="44">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>28567.6</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>99.317</v>
+        <v>135.362</v>
       </c>
     </row>
     <row r="45">
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3402.5</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>34472.6</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.214</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>135.433</v>
+        <v>153.575</v>
       </c>
     </row>
     <row r="46">
@@ -2967,28 +2967,28 @@
         <v>79</v>
       </c>
       <c r="D46" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>82.3</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>225.3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27823.3</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>76.246</v>
+        <v>78.377</v>
       </c>
     </row>
     <row r="47">
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>9554.1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>37189.6</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>12.93</v>
+        <v>16.925</v>
       </c>
       <c r="K47" t="n">
-        <v>130.89</v>
+        <v>136.342</v>
       </c>
     </row>
     <row r="48">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>22127.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>65.457</v>
+        <v>48.582</v>
       </c>
     </row>
     <row r="49">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>465.3</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2.688</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="50">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>3.523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>50592.3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>134.829</v>
+        <v>156.268</v>
       </c>
     </row>
     <row r="52">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>32343.7</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>102.698</v>
+        <v>96.031</v>
       </c>
     </row>
     <row r="53">
@@ -3215,25 +3215,25 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>197.9</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>25677.2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>89.744</v>
+        <v>82.855</v>
       </c>
     </row>
     <row r="54">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>12987.1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>40.593</v>
+        <v>68.29</v>
       </c>
     </row>
     <row r="55">
@@ -3288,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>30683.8</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3300,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>93.441</v>
+        <v>85.751</v>
       </c>
     </row>
     <row r="56">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>27510.2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>94.446</v>
+        <v>68.941</v>
       </c>
     </row>
     <row r="57">
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1656.2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>25801.8</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3370,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>76.855</v>
+        <v>78.793</v>
       </c>
     </row>
     <row r="58">
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>19.153</v>
+        <v>37.069</v>
       </c>
     </row>
     <row r="59">
@@ -3422,28 +3422,28 @@
         <v>73</v>
       </c>
       <c r="D59" t="n">
-        <v>714.8</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1032.1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>4628.2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.198</v>
+        <v>3.744</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.414</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>28.279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3457,28 +3457,28 @@
         <v>94</v>
       </c>
       <c r="D60" t="n">
-        <v>1039</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>557.4</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>4518.1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>7782.5</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01</v>
+        <v>0.073</v>
       </c>
       <c r="K60" t="n">
-        <v>5.352</v>
+        <v>6.038</v>
       </c>
     </row>
     <row r="61">
@@ -3492,28 +3492,28 @@
         <v>95</v>
       </c>
       <c r="D61" t="n">
-        <v>3788.4</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>5591</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>875.5</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>9.197</v>
+        <v>3.558</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>9.967</v>
+        <v>22.442</v>
       </c>
       <c r="K61" t="n">
-        <v>1.459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3533,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>10078.1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>22.947</v>
+        <v>35.894</v>
       </c>
     </row>
     <row r="63">
@@ -3562,28 +3562,28 @@
         <v>97</v>
       </c>
       <c r="D63" t="n">
-        <v>1273.2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>900.7</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3944</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>12101.9</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.337</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.944</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>5.188</v>
+        <v>1.723</v>
       </c>
       <c r="K63" t="n">
-        <v>51.65</v>
+        <v>56.917</v>
       </c>
     </row>
     <row r="64">
@@ -3597,28 +3597,28 @@
         <v>98</v>
       </c>
       <c r="D64" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1547.9</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>51690</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.508</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>71.104</v>
+        <v>109.564</v>
       </c>
     </row>
     <row r="65">
@@ -3632,28 +3632,28 @@
         <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>32.6</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1019.7</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>17431.3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01</v>
+        <v>5.126</v>
       </c>
       <c r="I65" t="n">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.371</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>52.242</v>
+        <v>46.361</v>
       </c>
     </row>
     <row r="66">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2397.6</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>11.101</v>
+        <v>17.088</v>
       </c>
     </row>
     <row r="67">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>3149.4</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>47059.4</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>3.881</v>
+        <v>11.221</v>
       </c>
     </row>
     <row r="68">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>23592.6</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>39.747</v>
+        <v>49.515</v>
       </c>
     </row>
     <row r="69">
@@ -3778,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>427.8</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>3955.3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>9.675</v>
+        <v>11.608</v>
       </c>
     </row>
     <row r="70">
@@ -3813,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>230.3</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>37368.8</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>33.031</v>
+        <v>43.657</v>
       </c>
     </row>
     <row r="71">
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>19493.8</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>27.75</v>
+        <v>47.122</v>
       </c>
     </row>
     <row r="72">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>20168.6</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>44.827</v>
+        <v>48.861</v>
       </c>
     </row>
     <row r="73">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>19257</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>49.568</v>
+        <v>46.298</v>
       </c>
     </row>
     <row r="74">
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>19924</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>31.451</v>
+        <v>33.291</v>
       </c>
     </row>
     <row r="75">
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>37868.5</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>68.928</v>
+        <v>53.645</v>
       </c>
     </row>
     <row r="76">
@@ -4023,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1456</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>25154.3</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4035,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.607</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>55.889</v>
+        <v>62.435</v>
       </c>
     </row>
     <row r="77">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>20936.7</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>45.161</v>
+        <v>32.583</v>
       </c>
     </row>
     <row r="78">
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>94.2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>18307.7</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.084</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>58.567</v>
+        <v>47.048</v>
       </c>
     </row>
     <row r="79">
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>12943.7</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>21.115</v>
+        <v>28.261</v>
       </c>
     </row>
     <row r="80">
@@ -4163,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>49.7</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>47901.4</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4175,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>89.134</v>
+        <v>103.939</v>
       </c>
     </row>
     <row r="81">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>56581.9</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>83.408</v>
+        <v>83.862</v>
       </c>
     </row>
     <row r="82">
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>89.3</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>350.5</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.914</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>23382.2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>92.845</v>
+        <v>97.911</v>
       </c>
     </row>
     <row r="84">
@@ -4303,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>17076.1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>51.41</v>
+        <v>53.662</v>
       </c>
     </row>
     <row r="85">
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>13427.1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>55.244</v>
+        <v>55.331</v>
       </c>
     </row>
     <row r="86">
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>7652.1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>38.285</v>
+        <v>52.588</v>
       </c>
     </row>
     <row r="87">
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>5132.1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>24.643</v>
+        <v>33.385</v>
       </c>
     </row>
     <row r="88">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>27313.5</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>133.018</v>
+        <v>129.399</v>
       </c>
     </row>
     <row r="89">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>24931.3</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>104.632</v>
+        <v>134.391</v>
       </c>
     </row>
     <row r="90">
@@ -4507,16 +4507,16 @@
         <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>9245.7</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>65980.9</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4525,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.83</v>
+        <v>8.516</v>
       </c>
       <c r="K90" t="n">
-        <v>248.909</v>
+        <v>214.359</v>
       </c>
     </row>
     <row r="91">
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>9269.6</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>32.308</v>
+        <v>27.546</v>
       </c>
     </row>
     <row r="92">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>37530.4</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>138.283</v>
+        <v>179.383</v>
       </c>
     </row>
     <row r="93">
@@ -4615,25 +4615,25 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>107.6</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>244.9</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>42486.8</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>150.501</v>
+        <v>146.782</v>
       </c>
     </row>
     <row r="94">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>3498.9</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>25.655</v>
+        <v>40.142</v>
       </c>
     </row>
     <row r="95">
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>15188</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>66.371</v>
+        <v>109.478</v>
       </c>
     </row>
     <row r="96">
@@ -4720,25 +4720,25 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>107.6</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>738.8</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>40500.6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.702</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>112.182</v>
+        <v>101.15</v>
       </c>
     </row>
     <row r="97">
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>23625.6</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>105.208</v>
+        <v>151.705</v>
       </c>
     </row>
     <row r="98">
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>22380.5</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>110.401</v>
+        <v>102.298</v>
       </c>
     </row>
     <row r="99">
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>246.3</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>6757.2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>9.763</v>
+        <v>7.647</v>
       </c>
     </row>
     <row r="102">
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2838.3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>13.562</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="103">
@@ -4968,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>419.2</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>5500.3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>24.005</v>
+        <v>16.324</v>
       </c>
     </row>
     <row r="104">
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>73.7</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>18632.1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>69.367</v>
+        <v>82.824</v>
       </c>
     </row>
     <row r="105">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>5337.3</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>24.97</v>
+        <v>19.646</v>
       </c>
     </row>
     <row r="106">
@@ -5070,25 +5070,25 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>11494.7</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.456</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>47.86</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="107">
@@ -5108,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>754.8</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>5452.1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -5120,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.174</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>22.17</v>
+        <v>15.614</v>
       </c>
     </row>
     <row r="108">
@@ -5140,25 +5140,25 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>612.1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>8749.2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.934</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>26.98</v>
+        <v>23.467</v>
       </c>
     </row>
     <row r="109">
@@ -5178,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>967.7</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>12408.8</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>40.47</v>
+        <v>51.933</v>
       </c>
     </row>
     <row r="110">
@@ -5210,25 +5210,25 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1362.2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>41610.1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>135.549</v>
+        <v>134.681</v>
       </c>
     </row>
     <row r="111">
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>26130.9</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>83.454</v>
+        <v>115.875</v>
       </c>
     </row>
     <row r="112">
@@ -5277,28 +5277,28 @@
         <v>149</v>
       </c>
       <c r="D112" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>414.6</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>79.6</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>16057</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.526</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>52.623</v>
+        <v>38.155</v>
       </c>
     </row>
     <row r="113">
@@ -5318,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>8124</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5330,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.507</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>21.663</v>
+        <v>80.701</v>
       </c>
     </row>
     <row r="114">
@@ -5353,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>253.2</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2179.9</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5365,10 +5365,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>5.177</v>
+        <v>6.569</v>
       </c>
     </row>
     <row r="115">
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1039.2</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>1.731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5423,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1035.3</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>5.41</v>
+        <v>15.104</v>
       </c>
     </row>
     <row r="117">
@@ -5452,28 +5452,28 @@
         <v>154</v>
       </c>
       <c r="D117" t="n">
-        <v>276.6</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1104.2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>27437.5</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.196</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>3.113</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>105.3</v>
+        <v>114.242</v>
       </c>
     </row>
     <row r="118">
@@ -5487,28 +5487,28 @@
         <v>155</v>
       </c>
       <c r="D118" t="n">
-        <v>2135.6</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1142.7</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>2594</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>27244.1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.199</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.639</v>
+        <v>3.636</v>
       </c>
       <c r="K118" t="n">
-        <v>92.182</v>
+        <v>80.976</v>
       </c>
     </row>
     <row r="119">
@@ -5522,28 +5522,28 @@
         <v>156</v>
       </c>
       <c r="D119" t="n">
-        <v>632.8</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>201.6</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1309.1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>9092.6</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0.015</v>
+        <v>0.009</v>
       </c>
       <c r="K119" t="n">
-        <v>25.848</v>
+        <v>5.325</v>
       </c>
     </row>
     <row r="120">
@@ -5563,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1713.1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>41279.8</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5575,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.122</v>
+        <v>0.836</v>
       </c>
       <c r="K120" t="n">
-        <v>114.436</v>
+        <v>169.155</v>
       </c>
     </row>
     <row r="121">
@@ -5592,28 +5592,28 @@
         <v>158</v>
       </c>
       <c r="D121" t="n">
-        <v>2621.2</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1403.7</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>19351.9</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.221</v>
+        <v>0.424</v>
       </c>
       <c r="I121" t="n">
-        <v>1.551</v>
+        <v>4.637</v>
       </c>
       <c r="J121" t="n">
-        <v>0.054</v>
+        <v>0.272</v>
       </c>
       <c r="K121" t="n">
-        <v>70.457</v>
+        <v>80.6</v>
       </c>
     </row>
     <row r="122">
@@ -5627,28 +5627,28 @@
         <v>159</v>
       </c>
       <c r="D122" t="n">
-        <v>1829.1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1863.9</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>17963</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.814</v>
+        <v>0.579</v>
       </c>
       <c r="J122" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>46.831</v>
+        <v>31.241</v>
       </c>
     </row>
     <row r="123">
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>941.9</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>27513</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5680,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.804</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>65.072</v>
+        <v>53.803</v>
       </c>
     </row>
     <row r="124">
@@ -5703,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>539.7</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>37783.2</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5715,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>91.843</v>
+        <v>98.093</v>
       </c>
     </row>
     <row r="125">
@@ -5738,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>322.7</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>46067.7</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5750,10 +5750,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0.087</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>85.798</v>
+        <v>97.484</v>
       </c>
     </row>
     <row r="126">
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>147.5</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>514.2</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5785,10 +5785,10 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>106.9</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>29134.1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>64.75</v>
+        <v>36.396</v>
       </c>
     </row>
     <row r="128">
@@ -5843,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>32288</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.457</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>99.168</v>
+        <v>96.036</v>
       </c>
     </row>
     <row r="129">
@@ -5872,28 +5872,28 @@
         <v>167</v>
       </c>
       <c r="D129" t="n">
-        <v>57.5</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1369.1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>35744.3</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>93.409</v>
+        <v>133.62</v>
       </c>
     </row>
     <row r="130">
@@ -5913,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>2645.3</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>46666.8</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5925,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.555</v>
+        <v>2.333</v>
       </c>
       <c r="K130" t="n">
-        <v>95.388</v>
+        <v>77.736</v>
       </c>
     </row>
     <row r="131">
@@ -5948,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1240.4</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>17838.5</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5960,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.465</v>
+        <v>9.581</v>
       </c>
       <c r="K131" t="n">
-        <v>40.664</v>
+        <v>15.842</v>
       </c>
     </row>
     <row r="132">
@@ -5977,28 +5977,28 @@
         <v>170</v>
       </c>
       <c r="D132" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1619</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>32254.4</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>104.882</v>
+        <v>108.105</v>
       </c>
     </row>
     <row r="133">
@@ -6012,10 +6012,10 @@
         <v>172</v>
       </c>
       <c r="D133" t="n">
-        <v>979.1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>395.4</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>4.804</v>
+        <v>8.457</v>
       </c>
       <c r="I133" t="n">
-        <v>1.556</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -6047,28 +6047,28 @@
         <v>173</v>
       </c>
       <c r="D134" t="n">
-        <v>3180.7</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>3415.4</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1602.8</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1.035</v>
+        <v>17.712</v>
       </c>
       <c r="I134" t="n">
-        <v>0.786</v>
+        <v>10.262</v>
       </c>
       <c r="J134" t="n">
-        <v>1.096</v>
+        <v>0.529</v>
       </c>
       <c r="K134" t="n">
-        <v>3.418</v>
+        <v>10.627</v>
       </c>
     </row>
     <row r="135">
@@ -6085,25 +6085,25 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>207.8</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>23056.8</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.899</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>85.493</v>
+        <v>85.475</v>
       </c>
     </row>
     <row r="136">
@@ -6117,28 +6117,28 @@
         <v>175</v>
       </c>
       <c r="D136" t="n">
-        <v>3840.7</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>794.8</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>242.4</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>4355.3</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>21.648</v>
+        <v>52.193</v>
       </c>
       <c r="I136" t="n">
-        <v>6.297</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.994</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>21.116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6152,28 +6152,28 @@
         <v>176</v>
       </c>
       <c r="D137" t="n">
-        <v>369.5</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1925.6</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>9030.5</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1.601</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>17.079</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>53.174</v>
+        <v>76.334</v>
       </c>
     </row>
     <row r="138">
@@ -6187,28 +6187,28 @@
         <v>177</v>
       </c>
       <c r="D138" t="n">
-        <v>8482.7</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>2810</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>275.2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>14974</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>38.929</v>
+        <v>33.184</v>
       </c>
       <c r="I138" t="n">
-        <v>23.818</v>
+        <v>43.325</v>
       </c>
       <c r="J138" t="n">
-        <v>1.577</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>88.683</v>
+        <v>59.647</v>
       </c>
     </row>
     <row r="139">
@@ -6222,28 +6222,28 @@
         <v>178</v>
       </c>
       <c r="D139" t="n">
-        <v>153.9</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>521.1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>180.8</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>23408</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>4.459</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0.264</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>90.225</v>
+        <v>58.009</v>
       </c>
     </row>
     <row r="140">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>8707</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>43.624</v>
+        <v>30.952</v>
       </c>
     </row>
     <row r="141">
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>3911.5</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>6.974</v>
+        <v>1.252</v>
       </c>
     </row>
     <row r="142">
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1376.2</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>6.853</v>
+        <v>26.923</v>
       </c>
     </row>
     <row r="143">
@@ -6365,25 +6365,25 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1232.1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>13504.7</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>4.483</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>36.363</v>
+        <v>32.589</v>
       </c>
     </row>
     <row r="144">
@@ -6403,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>984.2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>13873.5</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6415,10 +6415,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0.407</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>53.011</v>
+        <v>23.302</v>
       </c>
     </row>
     <row r="145">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>327.8</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>2.381</v>
+        <v>17.013</v>
       </c>
     </row>
     <row r="146">
@@ -6467,28 +6467,28 @@
         <v>187</v>
       </c>
       <c r="D146" t="n">
-        <v>591.5</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>396.8</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>853.9</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>8250.8</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>2.233</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>2.314</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>31.388</v>
+        <v>39.352</v>
       </c>
     </row>
     <row r="147">
@@ -6502,28 +6502,28 @@
         <v>188</v>
       </c>
       <c r="D147" t="n">
-        <v>1001.9</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>2282.7</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>6537.2</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0.522</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1.056</v>
+        <v>2.019</v>
       </c>
       <c r="J147" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>17.481</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="148">
@@ -6537,28 +6537,28 @@
         <v>189</v>
       </c>
       <c r="D148" t="n">
-        <v>1770.9</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>115.4</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1589.4</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>47633.3</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.804</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>70.513</v>
+        <v>55.919</v>
       </c>
     </row>
     <row r="149">
@@ -6572,28 +6572,28 @@
         <v>190</v>
       </c>
       <c r="D149" t="n">
-        <v>34.2</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>59.6</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>3929.2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>30131.7</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.22</v>
+        <v>5.18</v>
       </c>
       <c r="K149" t="n">
-        <v>44.564</v>
+        <v>41.155</v>
       </c>
     </row>
     <row r="150">
@@ -6610,25 +6610,25 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>432.6</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>120825</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.531</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>160.065</v>
+        <v>169.191</v>
       </c>
     </row>
     <row r="151">
@@ -6648,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>77265</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6660,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>139.893</v>
+        <v>139.995</v>
       </c>
     </row>
     <row r="152">
@@ -6683,10 +6683,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1494.9</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>40549.1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6695,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0.465</v>
+        <v>3.171</v>
       </c>
       <c r="K152" t="n">
-        <v>73.257</v>
+        <v>67.421</v>
       </c>
     </row>
     <row r="153">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>38772.7</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>39.463</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="154">
@@ -6747,28 +6747,28 @@
         <v>195</v>
       </c>
       <c r="D154" t="n">
-        <v>2215</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>527.6</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>2114.3</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>103356.2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>1.028</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1.82</v>
+        <v>0.728</v>
       </c>
       <c r="K154" t="n">
-        <v>160.344</v>
+        <v>183.316</v>
       </c>
     </row>
     <row r="155">
@@ -6782,28 +6782,28 @@
         <v>196</v>
       </c>
       <c r="D155" t="n">
-        <v>2451.2</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>147.8</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>13348.9</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>51467.2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>1.609</v>
+        <v>8.493</v>
       </c>
       <c r="I155" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>10.162</v>
+        <v>13.864</v>
       </c>
       <c r="K155" t="n">
-        <v>66.328</v>
+        <v>61.053</v>
       </c>
     </row>
     <row r="156">
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>19796.7</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>35.456</v>
+        <v>33.303</v>
       </c>
     </row>
     <row r="157">
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>3306.1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.139</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="158">
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>263.1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.087</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="159">
@@ -6922,28 +6922,28 @@
         <v>201</v>
       </c>
       <c r="D159" t="n">
-        <v>2003.6</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>9128.9</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1566.2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1.58</v>
+        <v>4.912</v>
       </c>
       <c r="I159" t="n">
-        <v>17.673</v>
+        <v>16.171</v>
       </c>
       <c r="J159" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>4.041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6960,25 +6960,25 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>523.8</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>21781.3</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1.219</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>31.081</v>
+        <v>48.236</v>
       </c>
     </row>
     <row r="161">
@@ -6992,28 +6992,28 @@
         <v>203</v>
       </c>
       <c r="D161" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>5274.4</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>437.3</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>8581.5</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>16.066</v>
+        <v>11.283</v>
       </c>
       <c r="J161" t="n">
-        <v>1.514</v>
+        <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>9.692</v>
+        <v>17.582</v>
       </c>
     </row>
     <row r="162">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>18365.9</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>52.275</v>
+        <v>36.917</v>
       </c>
     </row>
     <row r="163">
@@ -7062,28 +7062,28 @@
         <v>73</v>
       </c>
       <c r="D163" t="n">
-        <v>3387.7</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>131.8</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>11030.7</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>6718.7</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>8.025</v>
+        <v>24.514</v>
       </c>
       <c r="I163" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>36.699</v>
+        <v>60.863</v>
       </c>
       <c r="K163" t="n">
-        <v>34.929</v>
+        <v>9.096</v>
       </c>
     </row>
     <row r="164">
@@ -7097,28 +7097,28 @@
         <v>206</v>
       </c>
       <c r="D164" t="n">
-        <v>665.1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>2201.9</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>429.7</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.787</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.409</v>
+        <v>6.894</v>
       </c>
       <c r="K164" t="n">
-        <v>1.066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -7132,28 +7132,28 @@
         <v>207</v>
       </c>
       <c r="D165" t="n">
-        <v>2207.2</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>5519.2</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>637.4</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>3.033</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>12.057</v>
+        <v>11.163</v>
       </c>
       <c r="K165" t="n">
-        <v>3.313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -7167,28 +7167,28 @@
         <v>208</v>
       </c>
       <c r="D166" t="n">
-        <v>774.9</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>77.6</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2776.8</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1720.6</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0.633</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.373</v>
+        <v>2.396</v>
       </c>
       <c r="K166" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -7202,28 +7202,28 @@
         <v>209</v>
       </c>
       <c r="D167" t="n">
-        <v>774.5</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>5643</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>2020.1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>3.946</v>
+        <v>14.443</v>
       </c>
       <c r="K167" t="n">
-        <v>5.241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -7237,28 +7237,28 @@
         <v>210</v>
       </c>
       <c r="D168" t="n">
-        <v>699.5</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>6361.1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>526.1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.593</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>14.713</v>
+        <v>16.376</v>
       </c>
       <c r="K168" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -7272,28 +7272,28 @@
         <v>211</v>
       </c>
       <c r="D169" t="n">
-        <v>6654.1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>693.6</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>17922.6</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>8707.8</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>7.046</v>
+        <v>0.277</v>
       </c>
       <c r="I169" t="n">
-        <v>0.599</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>23.646</v>
+        <v>37.244</v>
       </c>
       <c r="K169" t="n">
-        <v>7.738</v>
+        <v>5.165</v>
       </c>
     </row>
     <row r="170">
@@ -7307,28 +7307,28 @@
         <v>212</v>
       </c>
       <c r="D170" t="n">
-        <v>88.7</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>2032.9</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>617.4</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>3.51</v>
+        <v>9.21</v>
       </c>
       <c r="K170" t="n">
-        <v>1.593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -7342,28 +7342,28 @@
         <v>213</v>
       </c>
       <c r="D171" t="n">
-        <v>4710.4</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1411.7</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>2000.4</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>2409.5</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1.298</v>
+        <v>3.124</v>
       </c>
       <c r="I171" t="n">
-        <v>0.518</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.859</v>
+        <v>3.129</v>
       </c>
       <c r="K171" t="n">
-        <v>3.091</v>
+        <v>4.597</v>
       </c>
     </row>
     <row r="172">
@@ -7377,28 +7377,28 @@
         <v>214</v>
       </c>
       <c r="D172" t="n">
-        <v>5034.4</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>8066.7</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>2393.2</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>4.347</v>
+        <v>5.487</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>17.548</v>
+        <v>19.011</v>
       </c>
       <c r="K172" t="n">
-        <v>5.107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7418,10 +7418,10 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1123.2</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>4551.5</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7430,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>4.043</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>15.45</v>
+        <v>17.197</v>
       </c>
     </row>
     <row r="174">
@@ -7453,10 +7453,10 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>792.6</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>2.743</v>
+        <v>21.108</v>
       </c>
     </row>
     <row r="175">
@@ -7488,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>12939.7</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>15989.1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7500,10 +7500,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.198</v>
+        <v>6.373</v>
       </c>
       <c r="K175" t="n">
-        <v>4.443</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="176">
@@ -7517,28 +7517,28 @@
         <v>218</v>
       </c>
       <c r="D176" t="n">
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>80.2</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>7008.2</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>7771.4</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>3.786</v>
+        <v>4.902</v>
       </c>
       <c r="K176" t="n">
-        <v>16.712</v>
+        <v>15.847</v>
       </c>
     </row>
     <row r="177">
@@ -7558,10 +7558,10 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>210.2</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>7999.5</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7570,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>18.705</v>
+        <v>12.966</v>
       </c>
     </row>
     <row r="178">
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>13076.5</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>29.037</v>
+        <v>5.418</v>
       </c>
     </row>
     <row r="179">
@@ -7622,28 +7622,28 @@
         <v>221</v>
       </c>
       <c r="D179" t="n">
-        <v>481.2</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>7456.6</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>26469.7</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0.951</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>15.748</v>
+        <v>14.87</v>
       </c>
       <c r="K179" t="n">
-        <v>52.674</v>
+        <v>59.935</v>
       </c>
     </row>
     <row r="180">
@@ -7663,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1071.6</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>17451.8</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7675,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>3.088</v>
+        <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>41.83</v>
+        <v>46.529</v>
       </c>
     </row>
     <row r="181">
@@ -7698,10 +7698,10 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>818.7</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>31780.5</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7710,10 +7710,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.276</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>77.458</v>
+        <v>74.501</v>
       </c>
     </row>
     <row r="182">
@@ -7733,10 +7733,10 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>93.5</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>7166.3</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7745,10 +7745,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>7.671</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="183">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1525.2</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>7.603</v>
+        <v>29.576</v>
       </c>
     </row>
     <row r="184">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>3852.2</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>9.214</v>
+        <v>9.794</v>
       </c>
     </row>
     <row r="185">
@@ -7832,28 +7832,28 @@
         <v>228</v>
       </c>
       <c r="D185" t="n">
-        <v>115.2</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>78.7</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>157.4</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>13113.8</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>41.342</v>
+        <v>48.93</v>
       </c>
     </row>
     <row r="186">
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>2456.8</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>10.379</v>
+        <v>8.628</v>
       </c>
     </row>
     <row r="187">
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>127.2</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>7116.5</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7920,10 +7920,10 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>0.341</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>16.522</v>
+        <v>11.424</v>
       </c>
     </row>
     <row r="188">
@@ -7937,28 +7937,28 @@
         <v>231</v>
       </c>
       <c r="D188" t="n">
-        <v>414.7</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>512.6</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>974.4</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>14016.6</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>53.201</v>
+        <v>42.481</v>
       </c>
     </row>
     <row r="189">
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>9763.3</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>25.647</v>
+        <v>17.259</v>
       </c>
     </row>
     <row r="190">
@@ -8013,10 +8013,10 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>3393.4</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8025,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>12.299</v>
+        <v>12.738</v>
       </c>
     </row>
     <row r="191">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>3430</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>2.467</v>
+        <v>8.717</v>
       </c>
     </row>
     <row r="192">
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>12234.7</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>35.287</v>
+        <v>37.687</v>
       </c>
     </row>
     <row r="193">
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>908.2</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>2.595</v>
+        <v>10.472</v>
       </c>
     </row>
     <row r="194">
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>5901.1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>17.007</v>
+        <v>15.004</v>
       </c>
     </row>
     <row r="195">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>37505.3</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>129.932</v>
+        <v>143.172</v>
       </c>
     </row>
     <row r="196">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>29200.1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>94.798</v>
+        <v>82.229</v>
       </c>
     </row>
     <row r="197">
@@ -8258,10 +8258,10 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>107.1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>6695</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8270,10 +8270,10 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>25.517</v>
+        <v>14.653</v>
       </c>
     </row>
     <row r="198">
@@ -8290,25 +8290,25 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>62.8</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>81.7</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>14355.7</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>42.007</v>
+        <v>42.766</v>
       </c>
     </row>
     <row r="199">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>11715.8</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>29.954</v>
+        <v>1.753</v>
       </c>
     </row>
     <row r="200">
@@ -8360,25 +8360,25 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>4319.9</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1356.9</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>18515.2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>9.871</v>
+        <v>16.52</v>
       </c>
       <c r="J200" t="n">
-        <v>0.663</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>49.159</v>
+        <v>37.853</v>
       </c>
     </row>
     <row r="201">
@@ -8398,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>15650.3</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8410,10 +8410,10 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>51.688</v>
+        <v>57.988</v>
       </c>
     </row>
     <row r="202">
@@ -8430,25 +8430,25 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>706.3</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>331.5</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>31662.2</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>52.897</v>
+        <v>72.024</v>
       </c>
     </row>
     <row r="203">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>334.8</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0.914</v>
+        <v>14.749</v>
       </c>
     </row>
     <row r="204">
@@ -8503,10 +8503,10 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>274.1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>31444.3</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>68.226</v>
+        <v>77.417</v>
       </c>
     </row>
     <row r="205">
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>181.5</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>9735.2</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>19.309</v>
+        <v>21.048</v>
       </c>
     </row>
     <row r="206">
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>503.1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>13634.2</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8585,10 +8585,10 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1.165</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>31.364</v>
+        <v>33.253</v>
       </c>
     </row>
     <row r="207">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>36338.9</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>103.513</v>
+        <v>103.339</v>
       </c>
     </row>
     <row r="208">
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>5560.8</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8655,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>17.28</v>
+        <v>42.615</v>
       </c>
     </row>
     <row r="209">
@@ -8672,28 +8672,28 @@
         <v>253</v>
       </c>
       <c r="D209" t="n">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>702.6</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>3911.3</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>0.191</v>
+        <v>4.909</v>
       </c>
       <c r="K209" t="n">
-        <v>4.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -8742,28 +8742,28 @@
         <v>255</v>
       </c>
       <c r="D211" t="n">
-        <v>945.7</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>1451</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1583.5</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>45966</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.438</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>6.785</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>4.421</v>
+        <v>7.05</v>
       </c>
       <c r="K211" t="n">
-        <v>234.276</v>
+        <v>228.545</v>
       </c>
     </row>
     <row r="212">
@@ -8777,28 +8777,28 @@
         <v>256</v>
       </c>
       <c r="D212" t="n">
-        <v>631.3</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>434.3</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>1788.2</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>24274.6</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>0.262</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1.451</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1.886</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>84.418</v>
+        <v>94.637</v>
       </c>
     </row>
     <row r="213">
@@ -8812,28 +8812,28 @@
         <v>73</v>
       </c>
       <c r="D213" t="n">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>181.7</v>
+        <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>402.5</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>871.6</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.172</v>
+        <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>7.284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -8847,28 +8847,28 @@
         <v>258</v>
       </c>
       <c r="D214" t="n">
-        <v>12304.8</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>2361.2</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>6229.7</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>6031.8</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.222</v>
+        <v>1.776</v>
       </c>
       <c r="I214" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>0.923</v>
+        <v>4.727</v>
       </c>
       <c r="K214" t="n">
-        <v>3.268</v>
+        <v>5.904</v>
       </c>
     </row>
     <row r="215">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>999.2</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>4.592</v>
+        <v>9.732</v>
       </c>
     </row>
     <row r="216">
@@ -8917,25 +8917,25 @@
         <v>260</v>
       </c>
       <c r="D216" t="n">
-        <v>922.1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0.559</v>
+        <v>3.006</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>0.449</v>
+        <v>0</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -8952,28 +8952,28 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>2087.2</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>1013.8</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>2007.6</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>2.829</v>
+        <v>3.18</v>
       </c>
       <c r="I217" t="n">
-        <v>3.887</v>
+        <v>5.585</v>
       </c>
       <c r="J217" t="n">
-        <v>1.096</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>1.876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -8993,10 +8993,10 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>400.6</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>7227.7</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>12.193</v>
+        <v>8.157</v>
       </c>
     </row>
     <row r="219">
@@ -9022,28 +9022,28 @@
         <v>263</v>
       </c>
       <c r="D219" t="n">
-        <v>963.1</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>1308.8</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>2015.7</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>7325</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.873</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>2.562</v>
+        <v>7.633</v>
       </c>
       <c r="J219" t="n">
-        <v>2.328</v>
+        <v>4.725</v>
       </c>
       <c r="K219" t="n">
-        <v>10.021</v>
+        <v>3.847</v>
       </c>
     </row>
     <row r="220">
@@ -9057,28 +9057,28 @@
         <v>264</v>
       </c>
       <c r="D220" t="n">
-        <v>2172.4</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>5253.2</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>12024.1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1.083</v>
+        <v>1.583</v>
       </c>
       <c r="I220" t="n">
-        <v>3.737</v>
+        <v>2.884</v>
       </c>
       <c r="J220" t="n">
-        <v>1.027</v>
+        <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>19.243</v>
+        <v>22.419</v>
       </c>
     </row>
     <row r="221">
@@ -9092,28 +9092,28 @@
         <v>265</v>
       </c>
       <c r="D221" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>209.7</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>211.5</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>39772.8</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>66.846</v>
+        <v>60.057</v>
       </c>
     </row>
     <row r="222">
@@ -9127,16 +9127,16 @@
         <v>266</v>
       </c>
       <c r="D222" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>306.2</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>5123.5</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9145,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.656</v>
+        <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>11.323</v>
+        <v>12.959</v>
       </c>
     </row>
     <row r="223">
@@ -9162,28 +9162,28 @@
         <v>267</v>
       </c>
       <c r="D223" t="n">
-        <v>1142.5</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>326.7</v>
+        <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1048.6</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>0.336</v>
+        <v>2.537</v>
       </c>
       <c r="I223" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>1.453</v>
+        <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>2.152</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="224">
@@ -9200,13 +9200,13 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>960.3</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>17993.2</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9215,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>12.059</v>
+        <v>8.773</v>
       </c>
     </row>
     <row r="225">
@@ -9238,10 +9238,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>310.7</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>10858.2</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9250,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0.371</v>
+        <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>34.035</v>
+        <v>59.305</v>
       </c>
     </row>
     <row r="226">
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1164.8</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>6.02</v>
+        <v>23.029</v>
       </c>
     </row>
     <row r="227">
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>3466.5</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="K227" t="n">
-        <v>14.332</v>
+        <v>24.068</v>
       </c>
     </row>
     <row r="228">
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>11498.8</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>33.783</v>
+        <v>53.934</v>
       </c>
     </row>
     <row r="229">
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>8014.2</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="K229" t="n">
-        <v>25.463</v>
+        <v>12.166</v>
       </c>
     </row>
     <row r="230">
@@ -9410,25 +9410,25 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>66.2</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>19948.1</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>62.256</v>
+        <v>51.238</v>
       </c>
     </row>
     <row r="231">
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>23053.3</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>80.894</v>
+        <v>86.255</v>
       </c>
     </row>
     <row r="232">
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>336.8</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>5936.9</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>0.942</v>
+        <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>4.813</v>
+        <v>12.066</v>
       </c>
     </row>
     <row r="233">
@@ -9518,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>8468.4</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9530,10 +9530,10 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>39.407</v>
+        <v>27.606</v>
       </c>
     </row>
     <row r="234">
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>10052.9</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>34.24</v>
+        <v>33.296</v>
       </c>
     </row>
     <row r="235">
@@ -9588,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>5353.7</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>21.589</v>
+        <v>20.278</v>
       </c>
     </row>
     <row r="236">
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>1033.2</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>5.774</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="237">
@@ -9652,28 +9652,28 @@
         <v>281</v>
       </c>
       <c r="D237" t="n">
-        <v>1456.4</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>3146.3</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>4798.7</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>4.512</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>19.937</v>
+        <v>33.071</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>29.523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -9693,10 +9693,10 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>361.5</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>6967.3</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9705,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.896</v>
+        <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>45.784</v>
+        <v>54.29</v>
       </c>
     </row>
     <row r="239">
@@ -9722,28 +9722,28 @@
         <v>283</v>
       </c>
       <c r="D239" t="n">
-        <v>1360.6</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>995.5</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>6448.4</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>5.254</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>11.024</v>
+        <v>0</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>48.147</v>
+        <v>61.053</v>
       </c>
     </row>
     <row r="240">
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>3444.2</v>
+        <v>0</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>18.771</v>
+        <v>22.876</v>
       </c>
     </row>
     <row r="241">
@@ -9792,28 +9792,28 @@
         <v>285</v>
       </c>
       <c r="D241" t="n">
-        <v>2713.5</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>2298.3</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>189.1</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>10451.6</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>8.921</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>16.94</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.677</v>
+        <v>0</v>
       </c>
       <c r="K241" t="n">
-        <v>63.711</v>
+        <v>43.173</v>
       </c>
     </row>
     <row r="242">
@@ -9830,25 +9830,25 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>714.8</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>6312</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>4.727</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>38.616</v>
+        <v>29.653</v>
       </c>
     </row>
     <row r="243">
@@ -9862,28 +9862,28 @@
         <v>287</v>
       </c>
       <c r="D243" t="n">
-        <v>2449.4</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>2780.6</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>14777.4</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>4.415</v>
+        <v>25.502</v>
       </c>
       <c r="I243" t="n">
-        <v>18.17</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>110.399</v>
+        <v>131.592</v>
       </c>
     </row>
     <row r="244">
@@ -9897,28 +9897,28 @@
         <v>288</v>
       </c>
       <c r="D244" t="n">
-        <v>102.1</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>2358.8</v>
+        <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>136.1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>6299.5</v>
+        <v>0</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>13.505</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>43.044</v>
+        <v>68.337</v>
       </c>
     </row>
     <row r="245">
@@ -9932,28 +9932,28 @@
         <v>289</v>
       </c>
       <c r="D245" t="n">
-        <v>6672.3</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>3375.2</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>3114.4</v>
+        <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>19.045</v>
+        <v>45.597</v>
       </c>
       <c r="I245" t="n">
-        <v>16.588</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>14.122</v>
+        <v>26.137</v>
       </c>
     </row>
     <row r="246">
@@ -9973,10 +9973,10 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>564.1</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>6429.6</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9985,10 +9985,10 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>37.591</v>
+        <v>56.507</v>
       </c>
     </row>
     <row r="247">
@@ -10008,10 +10008,10 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>90.9</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>5814.5</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -10020,10 +10020,10 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>35.916</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="248">
@@ -10037,10 +10037,10 @@
         <v>292</v>
       </c>
       <c r="D248" t="n">
-        <v>203.3</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>245.1</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>2.108</v>
+        <v>22.908</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>163.7</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10090,10 +10090,10 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>0.203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>28955.8</v>
+        <v>0</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>145.561</v>
+        <v>154.68</v>
       </c>
     </row>
     <row r="251">
@@ -10148,10 +10148,10 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>467.3</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>698.7</v>
+        <v>0</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10160,10 +10160,10 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>0.99</v>
+        <v>4.424</v>
       </c>
       <c r="K251" t="n">
-        <v>1.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>11792.1</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="K252" t="n">
-        <v>61.853</v>
+        <v>56.776</v>
       </c>
     </row>
     <row r="253">
@@ -10218,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>17728.4</v>
+        <v>0</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10230,10 +10230,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>0.697</v>
+        <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>72.176</v>
+        <v>84.759</v>
       </c>
     </row>
     <row r="254">
@@ -10247,28 +10247,28 @@
         <v>230</v>
       </c>
       <c r="D254" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>3734</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>10463.6</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>1.984</v>
+        <v>0</v>
       </c>
       <c r="K254" t="n">
-        <v>51.595</v>
+        <v>27.868</v>
       </c>
     </row>
     <row r="255">
@@ -10288,10 +10288,10 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>233.7</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>37156.3</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10300,10 +10300,10 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>0.404</v>
+        <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>127.87</v>
+        <v>128.827</v>
       </c>
     </row>
     <row r="256">
@@ -10317,28 +10317,28 @@
         <v>299</v>
       </c>
       <c r="D256" t="n">
-        <v>35.8</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>1348.5</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>256.4</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>21929.6</v>
+        <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>8.462</v>
+        <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>0.757</v>
+        <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>112.576</v>
+        <v>136.19</v>
       </c>
     </row>
     <row r="257">
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>521.1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>2579</v>
+        <v>0</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10370,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>1.804</v>
+        <v>0</v>
       </c>
       <c r="K257" t="n">
-        <v>13.671</v>
+        <v>43.68</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_malawi.xlsx
+++ b/public/data/soil/soil_table_malawi.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5536.1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>70547.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>145674.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2856.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>121.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>10668.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3516.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5431</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>52698.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>18035.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4395.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>60932.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18376.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>24143</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>27627.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>32264.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>10378.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>64885.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2270,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2606.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2762.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2610.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>11157.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3440.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2512,16 +2512,16 @@
         <v>65</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>385.3</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>366.6</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7464.7</v>
       </c>
       <c r="H33" t="n">
         <v>0.684</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>25459.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2582,16 +2582,16 @@
         <v>67</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1302.9</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1450.7</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>51367.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2617,16 +2617,16 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2379.7</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4641</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>8958.7</v>
       </c>
       <c r="H36" t="n">
         <v>13.196</v>
@@ -2655,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>269.4</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1524.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>12457.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15242</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4247.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>12951.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5976.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>28851.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>22848.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>49656.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>76493.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63904.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>12285.3</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>65094.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>60955.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>4916</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>78906.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>49889.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>48215.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>28960.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>75749.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>51962.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>79125.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2340.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3422,16 +3422,16 @@
         <v>73</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>827.7</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>548.4</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>4967.6</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>27320</v>
       </c>
       <c r="H59" t="n">
         <v>3.744</v>
@@ -3457,16 +3457,16 @@
         <v>94</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1813.8</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>748.5</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>26407.5</v>
       </c>
       <c r="H60" t="n">
         <v>0.012</v>
@@ -3492,13 +3492,13 @@
         <v>95</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1249</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>3347.7</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>10312.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1366.3</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>9905.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>44141.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1716.8</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>23793.9</v>
       </c>
       <c r="H65" t="n">
         <v>5.126</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>4173.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>38666.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>37523.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2471.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>43227.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>16998.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>21971.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>39101.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>14548</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>33282.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4023,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>45242.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>15958.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>14155.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>19132.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>58643.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>58185.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>46066.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>48655.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>27264.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>11115.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>10514.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>60042.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>41877.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4513,10 +4513,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>11023.1</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>70249.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>10807.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>65978.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>67689.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>5341.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>34205.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>79267.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>42772.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>33673.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>3459.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>13968</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>3132.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>5516.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>30029.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>10001.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>11420.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>5208.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>13491.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>32754</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>45007.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>43089.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>21356.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>42492.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5353,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>463.9</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>16156.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>3076.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2609</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5458,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>5082.3</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>36356.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5487,16 +5487,16 @@
         <v>155</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1361.6</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>2476.1</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>38722.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5528,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>544.6</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>7077.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5563,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1781.9</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>54989.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5592,16 +5592,16 @@
         <v>158</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>3396.3</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>3106.3</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>3441.2</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>26290.3</v>
       </c>
       <c r="H121" t="n">
         <v>0.424</v>
@@ -5627,16 +5627,16 @@
         <v>159</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>2034.7</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1672.3</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>17543.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>917.8</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>23656.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>39939.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>39136.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>2710.1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>59593.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>79082.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5878,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>6527.3</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>66734.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5913,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>3157.9</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>77547.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5948,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>9237.5</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>31791.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>84147</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>172</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -6047,16 +6047,16 @@
         <v>173</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>488.9</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="H134" t="n">
         <v>17.712</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>8689.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -6117,16 +6117,16 @@
         <v>175</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>739.2</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>488.9</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="H136" t="n">
         <v>52.193</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>532.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6187,16 +6187,16 @@
         <v>177</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>515.6</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>225.4</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>5111.7</v>
       </c>
       <c r="H138" t="n">
         <v>33.184</v>
@@ -6222,7 +6222,7 @@
         <v>178</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>248.7</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>458.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>4185.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>3657.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>3333.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6505,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>735.5</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>6391.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6537,16 +6537,16 @@
         <v>189</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>871.7</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>6156.8</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>38467.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6578,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>4117.2</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>16118.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>111699</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>84654.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>24429.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>21198.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6747,16 +6747,16 @@
         <v>195</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1464.1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>735.5</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>496.5</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>70882</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6782,16 +6782,16 @@
         <v>196</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1526.8</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>8576.1</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>37596.9</v>
       </c>
       <c r="H155" t="n">
         <v>8.493</v>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>20867.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>3361.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>66.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6922,10 +6922,10 @@
         <v>201</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>928.1</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>2099.8</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6992,16 +6992,16 @@
         <v>203</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>164.4</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>3486.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>12486</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -7062,16 +7062,16 @@
         <v>73</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>12799.6</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>47077.9</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>11771.7</v>
       </c>
       <c r="H163" t="n">
         <v>24.514</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>5190.4</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>18047.1</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -7167,13 +7167,13 @@
         <v>208</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1212.6</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1451.6</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>7340.2</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>13486.9</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -7272,16 +7272,16 @@
         <v>211</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>6665.7</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>52199.6</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>13277.2</v>
       </c>
       <c r="H169" t="n">
         <v>0.277</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>4213.3</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -7342,16 +7342,16 @@
         <v>213</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>3122.4</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>7264.7</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>4563.6</v>
       </c>
       <c r="H171" t="n">
         <v>3.124</v>
@@ -7377,16 +7377,16 @@
         <v>214</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>14252</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>25203.1</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="H172" t="n">
         <v>5.487</v>
@@ -7418,10 +7418,10 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>4784.9</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>42387.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>4629.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>4322.1</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>48313.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7523,10 +7523,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>10522.9</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>16092.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>17542.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>49148.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7628,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>8923.1</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>32327</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>27978.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>69381.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>16018.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2678.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>6258.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>26497.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>3621.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>5498.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>12388.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>7975.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>6193.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>3842.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>19174.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>3509.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>8572.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>67632.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>59564.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>7765.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>39235.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>23244.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8360,13 +8360,13 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>4937.6</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>28574.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>29301</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>47472.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>7002.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>56445.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>4917.7</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>13478.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>38482.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>83970.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>4917.7</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>19550.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8678,10 +8678,10 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>4917.7</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>6573.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8748,10 +8748,10 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>10810.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>4766.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8812,16 +8812,16 @@
         <v>73</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1753.1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1245.3</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>4089.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>258</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>2132.4</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>4143.5</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>11610.2</v>
       </c>
       <c r="H214" t="n">
         <v>1.776</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>2556.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>260</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1098.5</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -8952,10 +8952,10 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>2557.7</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1399.7</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>4084.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>263</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1716.8</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>2645</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1101.2</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>7085.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9057,16 +9057,16 @@
         <v>264</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>332.8</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1007.4</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>6816</v>
       </c>
       <c r="H220" t="n">
         <v>1.583</v>
@@ -9098,10 +9098,10 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>823.3</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>37216.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1855.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>267</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1046.3</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1161.4</v>
       </c>
       <c r="H223" t="n">
         <v>2.537</v>
@@ -9203,10 +9203,10 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>16079</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>75193.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>7554.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>3900.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>28765.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>15286.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>63207.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>74347.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>17512.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>17913.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>23048.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>12572.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>466.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>521.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>283</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>9799.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>1268.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9792,7 +9792,7 @@
         <v>285</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9830,13 +9830,13 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>474.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9862,7 +9862,7 @@
         <v>287</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H243" t="n">
         <v>25.502</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9932,16 +9932,16 @@
         <v>289</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H245" t="n">
         <v>45.597</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1614.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>3870.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>292</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>1756.3</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>2755.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>34749.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10148,10 +10148,10 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>1756.3</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>4160.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>19509</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10218,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>993.3</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>18849.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>27137.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>69360.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>42982.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>5412</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
